--- a/EssilorLuxottica Projects/LUX - 06 - Vendor Statement Reconciliation Process/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 06 - Vendor Statement Reconciliation Process/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\LUX - 06 - Vendor Statement Reconciliation Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-06_Vendor Statement Reconciliation\LUX - 06 - Vendor Statement Reconciliation Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE16411-1E67-4E35-93D8-E4AB39C358A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E09182-BFFA-45A1-AF69-1AFE17874AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,6 @@
     <t>strComponentRoot</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\UIPATH_27\Desktop\GitHub\Luxottica-1\EssilorLuxottica Projects\Components\</t>
-  </si>
-  <si>
     <t>strVendorReconciliationReport</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>LUX-06-VendorReconciliationReport</t>
   </si>
   <si>
-    <t>strReconcilationReportSheet</t>
-  </si>
-  <si>
     <t>strStatementFBL1NSheetName</t>
   </si>
   <si>
@@ -217,7 +211,13 @@
     <t>strReconciliationsOutputPath</t>
   </si>
   <si>
-    <t xml:space="preserve">	Ess.LUX-06_StrReconciliationsOutputPath</t>
+    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\Components\</t>
+  </si>
+  <si>
+    <t>strReconciliationReportSheet</t>
+  </si>
+  <si>
+    <t>Ess.LUX-06_StrReconciliationsOutputPath</t>
   </si>
 </sst>
 </file>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -663,19 +663,19 @@
     </row>
     <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -688,7 +688,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -704,35 +704,35 @@
     </row>
     <row r="9" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1723,7 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{38073274-E19D-4B52-A934-D6EEEAA8CB59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2949,8 +2949,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
